--- a/data/000_TEMPLATE.xlsx
+++ b/data/000_TEMPLATE.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiapell/Library/CloudStorage/OneDrive-AgilentTechnologies/Documents/personale/PALLAVOLO/WebsiteTEST/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiapell/Library/CloudStorage/OneDrive-AgilentTechnologies/Documents/personale/PALLAVOLO/U12F_Caluso_2324/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF32472-81CE-5D43-A585-5D6811E282DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B31DDFB4-70CA-EB45-926D-91C17132550B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="34560" windowHeight="21100" xr2:uid="{1BFBEE08-C1EF-1F48-9B18-291AE5124981}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="34560" windowHeight="21100" xr2:uid="{1BFBEE08-C1EF-1F48-9B18-291AE5124981}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Esercizio" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$H$101</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$H$100</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <customWorkbookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <t>Atlete</t>
   </si>
@@ -95,9 +95,6 @@
     <t>BCV Caluso</t>
   </si>
   <si>
-    <t>U14F 2023/2024</t>
-  </si>
-  <si>
     <t>Chimineti</t>
   </si>
   <si>
@@ -111,9 +108,6 @@
   </si>
   <si>
     <t>Panetto</t>
-  </si>
-  <si>
-    <t>Randazzo</t>
   </si>
   <si>
     <t>Gerace</t>
@@ -149,9 +143,6 @@
     <t>Margherita</t>
   </si>
   <si>
-    <t>Caterina</t>
-  </si>
-  <si>
     <t>Valeria</t>
   </si>
   <si>
@@ -165,6 +156,9 @@
   </si>
   <si>
     <t>Allenamento numero:</t>
+  </si>
+  <si>
+    <t>U12F 2023/2024</t>
   </si>
 </sst>
 </file>
@@ -531,7 +525,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -575,6 +569,50 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -585,9 +623,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -602,21 +637,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -625,38 +645,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -681,13 +669,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>97366</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>726722</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -731,7 +719,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>97366</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2280356" cy="1282700"/>
@@ -776,7 +764,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>97366</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2280356" cy="1282700"/>
@@ -821,7 +809,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>97366</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2280356" cy="1282700"/>
@@ -866,7 +854,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>97366</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2280356" cy="1282700"/>
@@ -911,7 +899,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>97366</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2280356" cy="1282700"/>
@@ -956,7 +944,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>97366</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2280356" cy="1282700"/>
@@ -1001,7 +989,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>67763</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>81501</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1434150" cy="2549600"/>
@@ -1046,7 +1034,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>496251</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>90335</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1434150" cy="2549600"/>
@@ -1091,7 +1079,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>355998</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>88127</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1434150" cy="2549600"/>
@@ -1136,7 +1124,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>193660</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>80395</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1434150" cy="2549600"/>
@@ -2532,10 +2520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25C5A359-32AD-8749-AF53-E139F7D1D684}">
-  <dimension ref="A1:H98"/>
+  <dimension ref="A1:H97"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScale="230" zoomScaleNormal="100" zoomScalePageLayoutView="230" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A2" zoomScale="230" zoomScaleNormal="100" zoomScalePageLayoutView="230" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2556,25 +2544,25 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="H1" s="3" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G2" s="45" t="s">
-        <v>40</v>
+      <c r="G2" s="21" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.2">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
@@ -2601,16 +2589,16 @@
       <c r="H4" s="26"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="34">
+      <c r="A5" s="17">
         <v>2</v>
       </c>
-      <c r="B5" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="35">
+      <c r="B5" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="18">
         <v>41083</v>
       </c>
       <c r="E5" s="5"/>
@@ -2619,16 +2607,16 @@
       <c r="H5" s="26"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="34">
+      <c r="A6" s="17">
         <v>3</v>
       </c>
-      <c r="B6" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="35">
+      <c r="B6" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="18">
         <v>41404</v>
       </c>
       <c r="E6" s="5"/>
@@ -2637,16 +2625,16 @@
       <c r="H6" s="26"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="34">
+      <c r="A7" s="17">
         <v>4</v>
       </c>
-      <c r="B7" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="34" t="s">
+      <c r="B7" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="35">
+      <c r="D7" s="18">
         <v>41248</v>
       </c>
       <c r="E7" s="5"/>
@@ -2655,16 +2643,16 @@
       <c r="H7" s="26"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="34">
+      <c r="A8" s="17">
         <v>5</v>
       </c>
-      <c r="B8" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="35">
+      <c r="B8" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="18">
         <v>41226</v>
       </c>
       <c r="E8" s="5"/>
@@ -2673,16 +2661,16 @@
       <c r="H8" s="26"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="34">
+      <c r="A9" s="17">
         <v>6</v>
       </c>
-      <c r="B9" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="35">
+      <c r="B9" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="18">
         <v>41040</v>
       </c>
       <c r="E9" s="5"/>
@@ -2691,17 +2679,17 @@
       <c r="H9" s="26"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="34">
-        <v>7</v>
-      </c>
-      <c r="B10" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="35">
-        <v>41269</v>
+      <c r="A10" s="17">
+        <v>8</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="18">
+        <v>41323</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -2709,17 +2697,17 @@
       <c r="H10" s="26"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="34">
-        <v>8</v>
-      </c>
-      <c r="B11" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="35">
-        <v>41323</v>
+      <c r="A11" s="17">
+        <v>9</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="18">
+        <v>41263</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -2727,17 +2715,17 @@
       <c r="H11" s="26"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="34">
-        <v>9</v>
-      </c>
-      <c r="B12" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="35">
-        <v>41263</v>
+      <c r="A12" s="17">
+        <v>10</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="18">
+        <v>40633</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -2745,17 +2733,17 @@
       <c r="H12" s="26"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="34">
-        <v>10</v>
-      </c>
-      <c r="B13" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="35">
-        <v>40633</v>
+      <c r="A13" s="17">
+        <v>11</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="18">
+        <v>41036</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -2763,17 +2751,17 @@
       <c r="H13" s="26"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="34">
-        <v>11</v>
-      </c>
-      <c r="B14" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="35">
-        <v>41036</v>
+      <c r="A14" s="17">
+        <v>13</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="18">
+        <v>40987</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -2781,17 +2769,17 @@
       <c r="H14" s="26"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="34">
-        <v>13</v>
-      </c>
-      <c r="B15" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="35">
-        <v>40987</v>
+      <c r="A15" s="17">
+        <v>14</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="18">
+        <v>41313</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -2799,81 +2787,67 @@
       <c r="H15" s="26"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="34">
-        <v>14</v>
-      </c>
-      <c r="B16" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="35">
-        <v>41313</v>
+      <c r="A16" s="17">
+        <v>15</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="18">
+        <v>41624</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="26"/>
       <c r="H16" s="26"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="34">
+    <row r="17" spans="1:8" ht="5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+    </row>
+    <row r="18" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="29"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="35">
-        <v>41624</v>
-      </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-    </row>
-    <row r="18" spans="1:8" ht="5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="39"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-    </row>
-    <row r="19" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="42"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="43" t="s">
+      <c r="G18" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="44"/>
-    </row>
-    <row r="20" spans="1:8" ht="5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.2">
-      <c r="A21" s="30" t="s">
+      <c r="H18" s="20"/>
+    </row>
+    <row r="19" spans="1:8" ht="5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="A20" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+    </row>
+    <row r="21" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
     </row>
     <row r="22" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="26"/>
@@ -2896,44 +2870,44 @@
       <c r="H23" s="26"/>
     </row>
     <row r="24" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="26"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-    </row>
-    <row r="25" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="36"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="37"/>
-    </row>
-    <row r="27" spans="1:8" ht="21" x14ac:dyDescent="0.2">
-      <c r="A27" s="30" t="s">
+      <c r="A24" s="23"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="25"/>
+    </row>
+    <row r="26" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="A26" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-    </row>
-    <row r="28" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+    </row>
+    <row r="27" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="5"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+    </row>
+    <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="6"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
       <c r="F29" s="26"/>
       <c r="G29" s="26"/>
       <c r="H29" s="26"/>
@@ -2988,23 +2962,23 @@
       <c r="G34" s="26"/>
       <c r="H34" s="26"/>
     </row>
-    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="5"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
-    </row>
-    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="5"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+    </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="5"/>
-      <c r="B37" s="27"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="6"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
       <c r="F37" s="26"/>
       <c r="G37" s="26"/>
       <c r="H37" s="26"/>
@@ -3059,22 +3033,22 @@
       <c r="G42" s="26"/>
       <c r="H42" s="26"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="5"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="26"/>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="5"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="26"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="5"/>
-      <c r="B45" s="27"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="6"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
       <c r="F45" s="26"/>
       <c r="G45" s="26"/>
       <c r="H45" s="26"/>
@@ -3129,22 +3103,22 @@
       <c r="G50" s="26"/>
       <c r="H50" s="26"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="5"/>
-      <c r="B51" s="26"/>
-      <c r="C51" s="26"/>
-      <c r="D51" s="26"/>
-      <c r="E51" s="26"/>
-      <c r="F51" s="26"/>
-      <c r="G51" s="26"/>
-      <c r="H51" s="26"/>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="5"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="26"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="5"/>
-      <c r="B53" s="27"/>
-      <c r="C53" s="28"/>
-      <c r="D53" s="29"/>
-      <c r="E53" s="6"/>
+      <c r="B53" s="26"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="26"/>
+      <c r="E53" s="26"/>
       <c r="F53" s="26"/>
       <c r="G53" s="26"/>
       <c r="H53" s="26"/>
@@ -3199,22 +3173,22 @@
       <c r="G58" s="26"/>
       <c r="H58" s="26"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="5"/>
-      <c r="B59" s="26"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="26"/>
-      <c r="E59" s="26"/>
-      <c r="F59" s="26"/>
-      <c r="G59" s="26"/>
-      <c r="H59" s="26"/>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="5"/>
+      <c r="B60" s="30"/>
+      <c r="C60" s="31"/>
+      <c r="D60" s="32"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="26"/>
+      <c r="H60" s="26"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="5"/>
-      <c r="B61" s="27"/>
-      <c r="C61" s="28"/>
-      <c r="D61" s="29"/>
-      <c r="E61" s="6"/>
+      <c r="B61" s="26"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="26"/>
+      <c r="E61" s="26"/>
       <c r="F61" s="26"/>
       <c r="G61" s="26"/>
       <c r="H61" s="26"/>
@@ -3269,22 +3243,22 @@
       <c r="G66" s="26"/>
       <c r="H66" s="26"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67" s="5"/>
-      <c r="B67" s="26"/>
-      <c r="C67" s="26"/>
-      <c r="D67" s="26"/>
-      <c r="E67" s="26"/>
-      <c r="F67" s="26"/>
-      <c r="G67" s="26"/>
-      <c r="H67" s="26"/>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" s="5"/>
+      <c r="B68" s="30"/>
+      <c r="C68" s="31"/>
+      <c r="D68" s="32"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="26"/>
+      <c r="G68" s="26"/>
+      <c r="H68" s="26"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="5"/>
-      <c r="B69" s="27"/>
-      <c r="C69" s="28"/>
-      <c r="D69" s="29"/>
-      <c r="E69" s="6"/>
+      <c r="B69" s="26"/>
+      <c r="C69" s="26"/>
+      <c r="D69" s="26"/>
+      <c r="E69" s="26"/>
       <c r="F69" s="26"/>
       <c r="G69" s="26"/>
       <c r="H69" s="26"/>
@@ -3339,22 +3313,22 @@
       <c r="G74" s="26"/>
       <c r="H74" s="26"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A75" s="5"/>
-      <c r="B75" s="26"/>
-      <c r="C75" s="26"/>
-      <c r="D75" s="26"/>
-      <c r="E75" s="26"/>
-      <c r="F75" s="26"/>
-      <c r="G75" s="26"/>
-      <c r="H75" s="26"/>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" s="5"/>
+      <c r="B76" s="30"/>
+      <c r="C76" s="31"/>
+      <c r="D76" s="32"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="26"/>
+      <c r="G76" s="26"/>
+      <c r="H76" s="26"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="5"/>
-      <c r="B77" s="27"/>
-      <c r="C77" s="28"/>
-      <c r="D77" s="29"/>
-      <c r="E77" s="6"/>
+      <c r="B77" s="26"/>
+      <c r="C77" s="26"/>
+      <c r="D77" s="26"/>
+      <c r="E77" s="26"/>
       <c r="F77" s="26"/>
       <c r="G77" s="26"/>
       <c r="H77" s="26"/>
@@ -3409,249 +3383,238 @@
       <c r="G82" s="26"/>
       <c r="H82" s="26"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83" s="5"/>
-      <c r="B83" s="26"/>
-      <c r="C83" s="26"/>
-      <c r="D83" s="26"/>
-      <c r="E83" s="26"/>
-      <c r="F83" s="26"/>
-      <c r="G83" s="26"/>
-      <c r="H83" s="26"/>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84" s="33"/>
+      <c r="B84" s="34"/>
+      <c r="C84" s="34"/>
+      <c r="D84" s="34"/>
+      <c r="E84" s="34"/>
+      <c r="F84" s="34"/>
+      <c r="G84" s="34"/>
+      <c r="H84" s="35"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A85" s="17"/>
-      <c r="B85" s="18"/>
-      <c r="C85" s="18"/>
-      <c r="D85" s="18"/>
-      <c r="E85" s="18"/>
-      <c r="F85" s="18"/>
-      <c r="G85" s="18"/>
-      <c r="H85" s="19"/>
+      <c r="A85" s="36"/>
+      <c r="B85" s="22"/>
+      <c r="C85" s="22"/>
+      <c r="D85" s="22"/>
+      <c r="E85" s="22"/>
+      <c r="F85" s="22"/>
+      <c r="G85" s="22"/>
+      <c r="H85" s="37"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A86" s="20"/>
-      <c r="B86" s="21"/>
-      <c r="C86" s="21"/>
-      <c r="D86" s="21"/>
-      <c r="E86" s="21"/>
-      <c r="F86" s="21"/>
-      <c r="G86" s="21"/>
-      <c r="H86" s="22"/>
+      <c r="A86" s="36"/>
+      <c r="B86" s="22"/>
+      <c r="C86" s="22"/>
+      <c r="D86" s="22"/>
+      <c r="E86" s="22"/>
+      <c r="F86" s="22"/>
+      <c r="G86" s="22"/>
+      <c r="H86" s="37"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" s="20"/>
-      <c r="B87" s="21"/>
-      <c r="C87" s="21"/>
-      <c r="D87" s="21"/>
-      <c r="E87" s="21"/>
-      <c r="F87" s="21"/>
-      <c r="G87" s="21"/>
-      <c r="H87" s="22"/>
+      <c r="A87" s="36"/>
+      <c r="B87" s="22"/>
+      <c r="C87" s="22"/>
+      <c r="D87" s="22"/>
+      <c r="E87" s="22"/>
+      <c r="F87" s="22"/>
+      <c r="G87" s="22"/>
+      <c r="H87" s="37"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A88" s="20"/>
-      <c r="B88" s="21"/>
-      <c r="C88" s="21"/>
-      <c r="D88" s="21"/>
-      <c r="E88" s="21"/>
-      <c r="F88" s="21"/>
-      <c r="G88" s="21"/>
-      <c r="H88" s="22"/>
+      <c r="A88" s="36"/>
+      <c r="B88" s="22"/>
+      <c r="C88" s="22"/>
+      <c r="D88" s="22"/>
+      <c r="E88" s="22"/>
+      <c r="F88" s="22"/>
+      <c r="G88" s="22"/>
+      <c r="H88" s="37"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A89" s="20"/>
-      <c r="B89" s="21"/>
-      <c r="C89" s="21"/>
-      <c r="D89" s="21"/>
-      <c r="E89" s="21"/>
-      <c r="F89" s="21"/>
-      <c r="G89" s="21"/>
-      <c r="H89" s="22"/>
+      <c r="A89" s="36"/>
+      <c r="B89" s="22"/>
+      <c r="C89" s="22"/>
+      <c r="D89" s="22"/>
+      <c r="E89" s="22"/>
+      <c r="F89" s="22"/>
+      <c r="G89" s="22"/>
+      <c r="H89" s="37"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A90" s="20"/>
-      <c r="B90" s="21"/>
-      <c r="C90" s="21"/>
-      <c r="D90" s="21"/>
-      <c r="E90" s="21"/>
-      <c r="F90" s="21"/>
-      <c r="G90" s="21"/>
-      <c r="H90" s="22"/>
+      <c r="A90" s="36"/>
+      <c r="B90" s="22"/>
+      <c r="C90" s="22"/>
+      <c r="D90" s="22"/>
+      <c r="E90" s="22"/>
+      <c r="F90" s="22"/>
+      <c r="G90" s="22"/>
+      <c r="H90" s="37"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91" s="20"/>
-      <c r="B91" s="21"/>
-      <c r="C91" s="21"/>
-      <c r="D91" s="21"/>
-      <c r="E91" s="21"/>
-      <c r="F91" s="21"/>
-      <c r="G91" s="21"/>
-      <c r="H91" s="22"/>
+      <c r="A91" s="36"/>
+      <c r="B91" s="22"/>
+      <c r="C91" s="22"/>
+      <c r="D91" s="22"/>
+      <c r="E91" s="22"/>
+      <c r="F91" s="22"/>
+      <c r="G91" s="22"/>
+      <c r="H91" s="37"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A92" s="20"/>
-      <c r="B92" s="21"/>
-      <c r="C92" s="21"/>
-      <c r="D92" s="21"/>
-      <c r="E92" s="21"/>
-      <c r="F92" s="21"/>
-      <c r="G92" s="21"/>
-      <c r="H92" s="22"/>
+      <c r="A92" s="36"/>
+      <c r="B92" s="22"/>
+      <c r="C92" s="22"/>
+      <c r="D92" s="22"/>
+      <c r="E92" s="22"/>
+      <c r="F92" s="22"/>
+      <c r="G92" s="22"/>
+      <c r="H92" s="37"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A93" s="20"/>
-      <c r="B93" s="21"/>
-      <c r="C93" s="21"/>
-      <c r="D93" s="21"/>
-      <c r="E93" s="21"/>
-      <c r="F93" s="21"/>
-      <c r="G93" s="21"/>
-      <c r="H93" s="22"/>
+      <c r="A93" s="36"/>
+      <c r="B93" s="22"/>
+      <c r="C93" s="22"/>
+      <c r="D93" s="22"/>
+      <c r="E93" s="22"/>
+      <c r="F93" s="22"/>
+      <c r="G93" s="22"/>
+      <c r="H93" s="37"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A94" s="20"/>
-      <c r="B94" s="21"/>
-      <c r="C94" s="21"/>
-      <c r="D94" s="21"/>
-      <c r="E94" s="21"/>
-      <c r="F94" s="21"/>
-      <c r="G94" s="21"/>
-      <c r="H94" s="22"/>
+      <c r="A94" s="36"/>
+      <c r="B94" s="22"/>
+      <c r="C94" s="22"/>
+      <c r="D94" s="22"/>
+      <c r="E94" s="22"/>
+      <c r="F94" s="22"/>
+      <c r="G94" s="22"/>
+      <c r="H94" s="37"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A95" s="20"/>
-      <c r="B95" s="21"/>
-      <c r="C95" s="21"/>
-      <c r="D95" s="21"/>
-      <c r="E95" s="21"/>
-      <c r="F95" s="21"/>
-      <c r="G95" s="21"/>
-      <c r="H95" s="22"/>
+      <c r="A95" s="36"/>
+      <c r="B95" s="22"/>
+      <c r="C95" s="22"/>
+      <c r="D95" s="22"/>
+      <c r="E95" s="22"/>
+      <c r="F95" s="22"/>
+      <c r="G95" s="22"/>
+      <c r="H95" s="37"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A96" s="20"/>
-      <c r="B96" s="21"/>
-      <c r="C96" s="21"/>
-      <c r="D96" s="21"/>
-      <c r="E96" s="21"/>
-      <c r="F96" s="21"/>
-      <c r="G96" s="21"/>
-      <c r="H96" s="22"/>
+      <c r="A96" s="36"/>
+      <c r="B96" s="22"/>
+      <c r="C96" s="22"/>
+      <c r="D96" s="22"/>
+      <c r="E96" s="22"/>
+      <c r="F96" s="22"/>
+      <c r="G96" s="22"/>
+      <c r="H96" s="37"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A97" s="20"/>
-      <c r="B97" s="21"/>
-      <c r="C97" s="21"/>
-      <c r="D97" s="21"/>
-      <c r="E97" s="21"/>
-      <c r="F97" s="21"/>
-      <c r="G97" s="21"/>
-      <c r="H97" s="22"/>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A98" s="23"/>
-      <c r="B98" s="24"/>
-      <c r="C98" s="24"/>
-      <c r="D98" s="24"/>
-      <c r="E98" s="24"/>
-      <c r="F98" s="24"/>
-      <c r="G98" s="24"/>
-      <c r="H98" s="25"/>
+      <c r="A97" s="38"/>
+      <c r="B97" s="39"/>
+      <c r="C97" s="39"/>
+      <c r="D97" s="39"/>
+      <c r="E97" s="39"/>
+      <c r="F97" s="39"/>
+      <c r="G97" s="39"/>
+      <c r="H97" s="40"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:E17">
-    <sortCondition ref="B5:B17"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:E16">
+    <sortCondition ref="B5:B16"/>
   </sortState>
   <customSheetViews>
     <customSheetView guid="{6A7AA631-B972-764B-8F62-3F58B4C05DDE}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
-  <mergeCells count="80">
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="A25:H25"/>
+  <mergeCells count="79">
+    <mergeCell ref="A84:H97"/>
+    <mergeCell ref="F76:H82"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="B79:E79"/>
+    <mergeCell ref="B80:E80"/>
+    <mergeCell ref="B81:E81"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="F60:H66"/>
+    <mergeCell ref="B61:E61"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="B65:E65"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="F68:H74"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="F52:H58"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="F44:H50"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="F36:H42"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="F28:H34"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="A24:H24"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="A23:H23"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="A22:H22"/>
-    <mergeCell ref="A23:H23"/>
     <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="F29:H35"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="F37:H43"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="F45:H51"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="F53:H59"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="B56:E56"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B75:E75"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="F61:H67"/>
-    <mergeCell ref="B62:E62"/>
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="B65:E65"/>
-    <mergeCell ref="B66:E66"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="A85:H98"/>
-    <mergeCell ref="F77:H83"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="B79:E79"/>
-    <mergeCell ref="B80:E80"/>
-    <mergeCell ref="B81:E81"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="F69:H75"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="B73:E73"/>
-    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="A18:B18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="10"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="5"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -3668,7 +3631,7 @@
   <sheetData>
     <row r="6" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:7" s="10" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="31"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="7"/>
       <c r="C7" s="8"/>
       <c r="D7" s="9"/>
@@ -3677,7 +3640,7 @@
       <c r="G7" s="9"/>
     </row>
     <row r="8" spans="1:7" s="10" customFormat="1" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="11"/>
       <c r="C8" s="12"/>
       <c r="D8" s="13"/>
@@ -3686,7 +3649,7 @@
       <c r="G8" s="13"/>
     </row>
     <row r="9" spans="1:7" s="10" customFormat="1" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="33"/>
+      <c r="A9" s="43"/>
       <c r="B9" s="14"/>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
@@ -3696,7 +3659,7 @@
     </row>
     <row r="15" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:7" s="10" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="31"/>
+      <c r="A16" s="41"/>
       <c r="B16" s="7"/>
       <c r="C16" s="8"/>
       <c r="D16" s="9"/>
@@ -3705,7 +3668,7 @@
       <c r="G16" s="9"/>
     </row>
     <row r="17" spans="1:7" s="10" customFormat="1" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="32"/>
+      <c r="A17" s="42"/>
       <c r="B17" s="11"/>
       <c r="C17" s="12"/>
       <c r="D17" s="13"/>
@@ -3714,7 +3677,7 @@
       <c r="G17" s="13"/>
     </row>
     <row r="18" spans="1:7" s="10" customFormat="1" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="33"/>
+      <c r="A18" s="43"/>
       <c r="B18" s="14"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
@@ -3724,7 +3687,7 @@
     </row>
     <row r="24" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="1:7" s="10" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="31"/>
+      <c r="A25" s="41"/>
       <c r="B25" s="7"/>
       <c r="C25" s="8"/>
       <c r="D25" s="9"/>
@@ -3733,7 +3696,7 @@
       <c r="G25" s="9"/>
     </row>
     <row r="26" spans="1:7" s="10" customFormat="1" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="32"/>
+      <c r="A26" s="42"/>
       <c r="B26" s="11"/>
       <c r="C26" s="12"/>
       <c r="D26" s="13"/>
@@ -3742,7 +3705,7 @@
       <c r="G26" s="13"/>
     </row>
     <row r="27" spans="1:7" s="10" customFormat="1" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="33"/>
+      <c r="A27" s="43"/>
       <c r="B27" s="14"/>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
@@ -3752,7 +3715,7 @@
     </row>
     <row r="33" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="34" spans="1:7" s="10" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="31"/>
+      <c r="A34" s="41"/>
       <c r="B34" s="7"/>
       <c r="C34" s="8"/>
       <c r="D34" s="9"/>
@@ -3761,7 +3724,7 @@
       <c r="G34" s="9"/>
     </row>
     <row r="35" spans="1:7" s="10" customFormat="1" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="32"/>
+      <c r="A35" s="42"/>
       <c r="B35" s="11"/>
       <c r="C35" s="12"/>
       <c r="D35" s="13"/>
@@ -3770,7 +3733,7 @@
       <c r="G35" s="13"/>
     </row>
     <row r="36" spans="1:7" s="10" customFormat="1" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="33"/>
+      <c r="A36" s="43"/>
       <c r="B36" s="14"/>
       <c r="C36" s="15"/>
       <c r="D36" s="15"/>
@@ -3780,7 +3743,7 @@
     </row>
     <row r="42" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="43" spans="1:7" s="10" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="31"/>
+      <c r="A43" s="41"/>
       <c r="B43" s="7"/>
       <c r="C43" s="8"/>
       <c r="D43" s="9"/>
@@ -3789,7 +3752,7 @@
       <c r="G43" s="9"/>
     </row>
     <row r="44" spans="1:7" s="10" customFormat="1" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="32"/>
+      <c r="A44" s="42"/>
       <c r="B44" s="11"/>
       <c r="C44" s="12"/>
       <c r="D44" s="13"/>
@@ -3798,7 +3761,7 @@
       <c r="G44" s="13"/>
     </row>
     <row r="45" spans="1:7" s="10" customFormat="1" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="33"/>
+      <c r="A45" s="43"/>
       <c r="B45" s="14"/>
       <c r="C45" s="15"/>
       <c r="D45" s="15"/>
@@ -3808,7 +3771,7 @@
     </row>
     <row r="52" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="53" spans="1:7" s="10" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="31"/>
+      <c r="A53" s="41"/>
       <c r="B53" s="7"/>
       <c r="C53" s="8"/>
       <c r="D53" s="9"/>
@@ -3817,7 +3780,7 @@
       <c r="G53" s="9"/>
     </row>
     <row r="54" spans="1:7" s="10" customFormat="1" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="32"/>
+      <c r="A54" s="42"/>
       <c r="B54" s="11"/>
       <c r="C54" s="12"/>
       <c r="D54" s="13"/>
@@ -3826,7 +3789,7 @@
       <c r="G54" s="13"/>
     </row>
     <row r="55" spans="1:7" s="10" customFormat="1" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="33"/>
+      <c r="A55" s="43"/>
       <c r="B55" s="14"/>
       <c r="C55" s="15"/>
       <c r="D55" s="15"/>
